--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_SAMHSA.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_SAMHSA.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,8 +491,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -840,26 +855,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1217,6 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1224,11 +1243,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -1236,8 +1255,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1257,7 +1276,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1275,7 +1294,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1283,36 +1302,36 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1351,7 @@
         <v>13618364</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>10877987</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>10435061</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>10307255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1431,7 @@
         <v>10092367</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>10032616</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1471,7 @@
         <v>9569803</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1491,7 @@
         <v>9129743</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>7714582</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1532,7 +1551,7 @@
         <v>7406418</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1611,7 @@
         <v>7015999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>6171000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1752,7 +1771,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -1792,7 +1811,7 @@
         <v>5585237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -1832,7 +1851,7 @@
         <v>5367195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>5361649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>5204400</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
@@ -1912,7 +1931,7 @@
         <v>5064000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>71</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>5061098</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -1952,7 +1971,7 @@
         <v>5011078</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -1972,7 +1991,7 @@
         <v>4864187</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
@@ -2012,7 +2031,7 @@
         <v>4623986</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -2052,7 +2071,7 @@
         <v>4615571</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
@@ -2072,7 +2091,7 @@
         <v>4604581</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
@@ -2092,7 +2111,7 @@
         <v>4529180</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -2112,7 +2131,7 @@
         <v>4507564</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
@@ -2192,7 +2211,7 @@
         <v>4283875</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -2232,7 +2251,7 @@
         <v>4199976</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -2272,7 +2291,7 @@
         <v>3973507</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2292,7 +2311,7 @@
         <v>3899375</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
